--- a/Model/Information.xlsx
+++ b/Model/Information.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ingma\OneDrive\Studie\Thesis\Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d4f24f3f093ab16/Studie/Thesis/Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="18545BF5B8BDB608AB5E4C0851BC7830AD2EE761" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{CD94889B-5C21-4FB6-8ED4-6CF518D8F6EC}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="18545BF5B8BDB608AB5E4C0851BC7830AD2EE761" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{CD1250E8-8607-40DB-9EE0-A02F08395B8A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{F15DB7D1-2F30-46A5-BE4B-28C9EF6D6F17}"/>
   </bookViews>
@@ -288,11 +288,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -308,7 +308,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -607,13 +607,13 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="158.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.140625" style="2" customWidth="1"/>
